--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-13-filter-with-logic-plus.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-13-filter-with-logic-plus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78F6CADE-9F98-414A-A342-EF6BF2545680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04707E7F-2FC7-455A-95F8-CB45616BD2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="FILTER" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="54">
   <si>
     <t>Ming Sia</t>
   </si>
@@ -193,13 +215,16 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>"+" == OR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +241,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -253,27 +285,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -541,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E86906-9D4F-417C-B01C-B523EEC5EA67}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -559,17 +582,18 @@
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="11.796875" customWidth="1"/>
     <col min="10" max="10" width="13.3984375" customWidth="1"/>
-    <col min="11" max="11" width="12.59765625" customWidth="1"/>
+    <col min="11" max="11" width="12.59765625" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.09765625" customWidth="1"/>
     <col min="13" max="13" width="13.8984375" customWidth="1"/>
+    <col min="15" max="15" width="9.8984375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -594,11 +618,23 @@
       <c r="J3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="str" cm="1">
+        <f t="array" ref="M3:M6">_xlfn.UNIQUE(B4:B41)</f>
+        <v>French</v>
+      </c>
+      <c r="N3" t="str" cm="1">
+        <f t="array" ref="N3:N8">_xlfn.UNIQUE(C4:C41)</f>
+        <v>E</v>
+      </c>
+      <c r="O3" s="2" cm="1">
+        <f t="array" ref="O3:O40">_xlfn.UNIQUE(D4:D41)</f>
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -611,8 +647,33 @@
       <c r="D4" s="2">
         <v>44562</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="str" cm="1">
+        <f t="array" ref="H4:K20">_xlfn._xlws.FILTER(A4:D41,(B4:B41=F4)+(C4:C41=F12),"No Records")</f>
+        <v>Claire March</v>
+      </c>
+      <c r="I4" t="str">
+        <v>French</v>
+      </c>
+      <c r="J4" t="str">
+        <v>E</v>
+      </c>
+      <c r="K4" s="2">
+        <v>44562</v>
+      </c>
+      <c r="M4" t="str">
+        <v>English</v>
+      </c>
+      <c r="N4" t="str">
+        <v>B</v>
+      </c>
+      <c r="O4" s="2">
+        <v>44563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -625,8 +686,29 @@
       <c r="D5" s="2">
         <v>44563</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H5" t="str">
+        <v>Ming Sia</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="J5" t="str">
+        <v>D</v>
+      </c>
+      <c r="K5" s="2">
+        <v>44564</v>
+      </c>
+      <c r="M5" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="N5" t="str">
+        <v>D</v>
+      </c>
+      <c r="O5" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -639,8 +721,29 @@
       <c r="D6" s="2">
         <v>44564</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6" t="str">
+        <v>Trudy Curtain</v>
+      </c>
+      <c r="I6" t="str">
+        <v>French</v>
+      </c>
+      <c r="J6" t="str">
+        <v>A</v>
+      </c>
+      <c r="K6" s="2">
+        <v>44567</v>
+      </c>
+      <c r="M6" t="str">
+        <v>Science</v>
+      </c>
+      <c r="N6" t="str">
+        <v>C</v>
+      </c>
+      <c r="O6" s="2">
+        <v>44565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -654,10 +757,28 @@
         <v>44565</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Mary Woo</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Science</v>
+      </c>
+      <c r="J7" t="str">
+        <v>D</v>
+      </c>
+      <c r="K7" s="2">
+        <v>44569</v>
+      </c>
+      <c r="N7" t="str">
+        <v>A</v>
+      </c>
+      <c r="O7" s="2">
+        <v>44566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -670,8 +791,26 @@
       <c r="D8" s="2">
         <v>44566</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" t="str">
+        <v>Marcus King</v>
+      </c>
+      <c r="I8" t="str">
+        <v>French</v>
+      </c>
+      <c r="J8" t="str">
+        <v>E</v>
+      </c>
+      <c r="K8" s="2">
+        <v>44570</v>
+      </c>
+      <c r="N8" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="O8" s="2">
+        <v>44567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -684,8 +823,23 @@
       <c r="D9" s="2">
         <v>44567</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H9" t="str">
+        <v>Darius Waterhouse</v>
+      </c>
+      <c r="I9" t="str">
+        <v>English</v>
+      </c>
+      <c r="J9" t="str">
+        <v>D</v>
+      </c>
+      <c r="K9" s="2">
+        <v>44571</v>
+      </c>
+      <c r="O9" s="2">
+        <v>44568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -698,8 +852,23 @@
       <c r="D10" s="2">
         <v>44568</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10" t="str">
+        <v>Franco Rosetti</v>
+      </c>
+      <c r="I10" t="str">
+        <v>French</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="K10" s="2">
+        <v>44573</v>
+      </c>
+      <c r="O10" s="2">
+        <v>44569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -712,8 +881,26 @@
       <c r="D11" s="2">
         <v>44569</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Andrea Miller</v>
+      </c>
+      <c r="I11" t="str">
+        <v>French</v>
+      </c>
+      <c r="J11" t="str">
+        <v>C</v>
+      </c>
+      <c r="K11" s="2">
+        <v>44576</v>
+      </c>
+      <c r="O11" s="2">
+        <v>44570</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -726,8 +913,26 @@
       <c r="D12" s="2">
         <v>44570</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Michael Fladgate</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Science</v>
+      </c>
+      <c r="J12" t="str">
+        <v>D</v>
+      </c>
+      <c r="K12" s="2">
+        <v>44578</v>
+      </c>
+      <c r="O12" s="2">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -740,8 +945,23 @@
       <c r="D13" s="2">
         <v>44571</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13" t="str">
+        <v>Chis Bonniface</v>
+      </c>
+      <c r="I13" t="str">
+        <v>French</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="K13" s="2">
+        <v>44579</v>
+      </c>
+      <c r="O13" s="2">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -754,8 +974,23 @@
       <c r="D14" s="2">
         <v>44572</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14" t="str">
+        <v>Joanne Yates</v>
+      </c>
+      <c r="I14" t="str">
+        <v>French</v>
+      </c>
+      <c r="J14" t="str">
+        <v>B</v>
+      </c>
+      <c r="K14" s="2">
+        <v>44582</v>
+      </c>
+      <c r="O14" s="2">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -768,8 +1003,23 @@
       <c r="D15" s="2">
         <v>44573</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15" t="str">
+        <v>Oscar Hubbard</v>
+      </c>
+      <c r="I15" t="str">
+        <v>French</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="K15" s="2">
+        <v>44585</v>
+      </c>
+      <c r="O15" s="2">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -782,8 +1032,23 @@
       <c r="D16" s="2">
         <v>44574</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H16" t="str">
+        <v>Kerry Fisher</v>
+      </c>
+      <c r="I16" t="str">
+        <v>French</v>
+      </c>
+      <c r="J16" t="str">
+        <v>A</v>
+      </c>
+      <c r="K16" s="2">
+        <v>44587</v>
+      </c>
+      <c r="O16" s="2">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -796,8 +1061,23 @@
       <c r="D17" s="2">
         <v>44575</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H17" t="str">
+        <v>Bonnie Kelley</v>
+      </c>
+      <c r="I17" t="str">
+        <v>French</v>
+      </c>
+      <c r="J17" t="str">
+        <v>B</v>
+      </c>
+      <c r="K17" s="2">
+        <v>44593</v>
+      </c>
+      <c r="O17" s="2">
+        <v>44576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -810,8 +1090,23 @@
       <c r="D18" s="2">
         <v>44576</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <v>Susie Harrington</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Science</v>
+      </c>
+      <c r="J18" t="str">
+        <v>D</v>
+      </c>
+      <c r="K18" s="2">
+        <v>44595</v>
+      </c>
+      <c r="O18" s="2">
+        <v>44577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -824,8 +1119,23 @@
       <c r="D19" s="2">
         <v>44577</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H19" t="str">
+        <v>Ernesto Allen</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Science</v>
+      </c>
+      <c r="J19" t="str">
+        <v>D</v>
+      </c>
+      <c r="K19" s="2">
+        <v>44598</v>
+      </c>
+      <c r="O19" s="2">
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -838,8 +1148,23 @@
       <c r="D20" s="2">
         <v>44578</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H20" t="str">
+        <v>Kathleen Mason</v>
+      </c>
+      <c r="I20" t="str">
+        <v>French</v>
+      </c>
+      <c r="J20" t="str">
+        <v>E</v>
+      </c>
+      <c r="K20" s="2">
+        <v>44599</v>
+      </c>
+      <c r="O20" s="2">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -852,8 +1177,11 @@
       <c r="D21" s="2">
         <v>44579</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O21" s="2">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -866,8 +1194,11 @@
       <c r="D22" s="2">
         <v>44580</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O22" s="2">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -880,8 +1211,11 @@
       <c r="D23" s="2">
         <v>44581</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O23" s="2">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -894,8 +1228,11 @@
       <c r="D24" s="2">
         <v>44582</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O24" s="2">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="35.4" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -908,8 +1245,14 @@
       <c r="D25" s="2">
         <v>44583</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O25" s="2">
+        <v>44584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -922,8 +1265,11 @@
       <c r="D26" s="2">
         <v>44584</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O26" s="2">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -936,8 +1282,11 @@
       <c r="D27" s="2">
         <v>44585</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O27" s="2">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -950,8 +1299,11 @@
       <c r="D28" s="2">
         <v>44586</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O28" s="2">
+        <v>44587</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -964,8 +1316,11 @@
       <c r="D29" s="2">
         <v>44587</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O29" s="2">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -978,8 +1333,11 @@
       <c r="D30" s="2">
         <v>44588</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O30" s="2">
+        <v>44589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -992,8 +1350,11 @@
       <c r="D31" s="2">
         <v>44589</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O31" s="2">
+        <v>44590</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1006,8 +1367,11 @@
       <c r="D32" s="2">
         <v>44590</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O32" s="2">
+        <v>44591</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1020,8 +1384,11 @@
       <c r="D33" s="2">
         <v>44591</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O33" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1034,8 +1401,11 @@
       <c r="D34" s="2">
         <v>44592</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O34" s="2">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1048,8 +1418,11 @@
       <c r="D35" s="2">
         <v>44593</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O35" s="2">
+        <v>44594</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1062,8 +1435,11 @@
       <c r="D36" s="2">
         <v>44594</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O36" s="2">
+        <v>44595</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1076,8 +1452,11 @@
       <c r="D37" s="2">
         <v>44595</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O37" s="2">
+        <v>44596</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1090,8 +1469,11 @@
       <c r="D38" s="2">
         <v>44596</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O38" s="2">
+        <v>44597</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1104,8 +1486,11 @@
       <c r="D39" s="2">
         <v>44597</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O39" s="2">
+        <v>44598</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1118,8 +1503,11 @@
       <c r="D40" s="2">
         <v>44598</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O40" s="2">
+        <v>44599</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1137,6 +1525,17 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G22:G37">
     <sortCondition ref="G22:G37"/>
   </sortState>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{E0057A7D-CEB2-44BE-A8DE-6F653398C97D}">
+      <formula1>$M$3:$M$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8" xr:uid="{8708C505-C7B5-491D-8B12-284DF1FEA9D5}">
+      <formula1>$O$3:$O$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12" xr:uid="{F78DE193-432A-4E39-A11C-A0274DBA6CB0}">
+      <formula1>$N$3:$N$8</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
